--- a/StructureDefinition-CompositionRunReport.xlsx
+++ b/StructureDefinition-CompositionRunReport.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T04:28:30+00:00</t>
+    <t>2025-10-06T14:14:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CompositionRunReport.xlsx
+++ b/StructureDefinition-CompositionRunReport.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/CompositionRunReport</t>
+    <t>https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/CompositionRunReport</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T14:14:26+00:00</t>
+    <t>2025-10-07T08:34:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -572,7 +572,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/CodeSystem/RSCompositionTypeCS-Run"/&gt;
+    &lt;system value="https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/CodeSystem/RSCompositionTypeCS-Run"/&gt;
     &lt;code value="run-report"/&gt;
     &lt;display value="Run Report"/&gt;
   &lt;/coding&gt;
@@ -667,7 +667,7 @@
     <t>Composition.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/EncounterTransportRunReport)
+    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/EncounterTransportRunReport)
 </t>
   </si>
   <si>
@@ -1396,7 +1396,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/CodeSystem/RSRunSectionCS"/&gt;
+    &lt;system value="https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/CodeSystem/RSRunSectionCS"/&gt;
     &lt;code value="patient"/&gt;
     &lt;display value="Patient"/&gt;
   &lt;/coding&gt;
@@ -1453,7 +1453,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/CodeSystem/RSRunSectionCS"/&gt;
+    &lt;system value="https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/CodeSystem/RSRunSectionCS"/&gt;
     &lt;code value="encounter"/&gt;
     &lt;display value="Encounter"/&gt;
   &lt;/coding&gt;
@@ -1510,7 +1510,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/CodeSystem/RSRunSectionCS"/&gt;
+    &lt;system value="https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/CodeSystem/RSRunSectionCS"/&gt;
     &lt;code value="incident"/&gt;
     &lt;display value="Incident"/&gt;
   &lt;/coding&gt;
@@ -1535,7 +1535,7 @@
     <t>Composition.section:incident.entry</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/LocationIncident)
+    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/LocationIncident)
 </t>
   </si>
   <si>
@@ -1571,7 +1571,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/CodeSystem/RSRunSectionCS"/&gt;
+    &lt;system value="https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/CodeSystem/RSRunSectionCS"/&gt;
     &lt;code value="triage-vitals"/&gt;
     &lt;display value="Triage and Vitals"/&gt;
   &lt;/coding&gt;
@@ -1596,7 +1596,7 @@
     <t>Composition.section:triageVitals.entry</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/ObservationTriageCategory|https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/ObservationHeartRate|https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/ObservationBloodPressure|https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/ObservationExtentOfInjury|https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/ObservationRespiratoryRate|https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/ObservationTemperature|https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/ObservationLevelOfConsciousness|https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/ObservationPupils|https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/ObservationCyanosis|https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/ObservationGCS)
+    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/ObservationTriageCategory|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/ObservationHeartRate|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/ObservationBloodPressure|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/ObservationExtentOfInjury|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/ObservationRespiratoryRate|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/ObservationTemperature|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/ObservationLevelOfConsciousness|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/ObservationPupils|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/ObservationCyanosis|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/ObservationGCS)
 </t>
   </si>
   <si>
@@ -1722,7 +1722,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/CodeSystem/RSRunSectionCS"/&gt;
+    &lt;system value="https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/CodeSystem/RSRunSectionCS"/&gt;
     &lt;code value="documents"/&gt;
     &lt;display value="Documents"/&gt;
   &lt;/coding&gt;
@@ -1747,7 +1747,7 @@
     <t>Composition.section:documents.entry</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/DocumentReferenceOneissRunForm|https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/DocumentReferenceCauseOfCrash|https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/DocumentReferencePartyAtFault|https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/DocumentReferenceIncidentManagement|https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/DocumentReferenceRoadNetworkShapes|https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/DocumentReferenceVehicleCondition)
+    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/DocumentReferenceOneissRunForm|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/DocumentReferenceCauseOfCrash|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/DocumentReferencePartyAtFault|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/DocumentReferenceIncidentManagement|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/DocumentReferenceRoadNetworkShapes|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/DocumentReferenceVehicleCondition)
 </t>
   </si>
   <si>
@@ -1783,7 +1783,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/CodeSystem/RSRunSectionCS"/&gt;
+    &lt;system value="https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/CodeSystem/RSRunSectionCS"/&gt;
     &lt;code value="workflow"/&gt;
     &lt;display value="Workflow"/&gt;
   &lt;/coding&gt;
@@ -1808,7 +1808,7 @@
     <t>Composition.section:workflow.entry</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/TaskDelayReporting|https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/TaskRoadSafety)
+    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/TaskDelayReporting|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/TaskRoadSafety)
 </t>
   </si>
   <si>
@@ -1844,7 +1844,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/CodeSystem/RSRunSectionCS"/&gt;
+    &lt;system value="https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/CodeSystem/RSRunSectionCS"/&gt;
     &lt;code value="timeline"/&gt;
     &lt;display value="Timeline"/&gt;
   &lt;/coding&gt;
@@ -1869,7 +1869,7 @@
     <t>Composition.section:timeline.entry</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/ObservationDateReceived|https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/ObservationTimeReceived|https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/ObservationTimeEnroute|https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/ObservationTimeOnScene|https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/ObservationTimeDeparted|https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/ObservationTimeHospitalArrival|https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/ObservationTimeStationArrival)
+    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/ObservationDateReceived|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/ObservationTimeReceived|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/ObservationTimeEnroute|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/ObservationTimeOnScene|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/ObservationTimeDeparted|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/ObservationTimeHospitalArrival|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/ObservationTimeStationArrival)
 </t>
   </si>
   <si>

--- a/StructureDefinition-CompositionRunReport.xlsx
+++ b/StructureDefinition-CompositionRunReport.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T08:34:02+00:00</t>
+    <t>2025-10-07T09:19:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CompositionRunReport.xlsx
+++ b/StructureDefinition-CompositionRunReport.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T09:19:43+00:00</t>
+    <t>2025-10-07T09:49:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CompositionRunReport.xlsx
+++ b/StructureDefinition-CompositionRunReport.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T09:49:39+00:00</t>
+    <t>2025-10-07T15:24:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CompositionRunReport.xlsx
+++ b/StructureDefinition-CompositionRunReport.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T15:24:26+00:00</t>
+    <t>2025-10-08T01:21:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CompositionRunReport.xlsx
+++ b/StructureDefinition-CompositionRunReport.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T01:21:21+00:00</t>
+    <t>2025-10-08T01:44:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CompositionRunReport.xlsx
+++ b/StructureDefinition-CompositionRunReport.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T01:44:50+00:00</t>
+    <t>2025-10-08T02:57:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CompositionRunReport.xlsx
+++ b/StructureDefinition-CompositionRunReport.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T02:57:10+00:00</t>
+    <t>2025-10-09T04:26:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CompositionRunReport.xlsx
+++ b/StructureDefinition-CompositionRunReport.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T04:26:27+00:00</t>
+    <t>2025-10-09T07:33:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CompositionRunReport.xlsx
+++ b/StructureDefinition-CompositionRunReport.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T07:33:25+00:00</t>
+    <t>2025-10-09T07:37:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CompositionRunReport.xlsx
+++ b/StructureDefinition-CompositionRunReport.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T07:37:26+00:00</t>
+    <t>2025-10-09T08:41:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
